--- a/doc/systems/SensorOffsetCalculator.xlsx
+++ b/doc/systems/SensorOffsetCalculator.xlsx
@@ -386,7 +386,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,18 +446,18 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>-2</v>
+        <v>-10.55</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>11.1</v>
       </c>
       <c r="E5">
         <f>$B$3-AVERAGE(C5:D5)</f>
-        <v>-0.5</v>
+        <v>-0.27499999999999947</v>
       </c>
       <c r="F5">
         <f>($B$1-$B$2)/(D5-C5)</f>
-        <v>0.4</v>
+        <v>9.237875288683603E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -467,6 +467,20 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6">
+        <v>-16.79</v>
+      </c>
+      <c r="D6">
+        <v>11.14</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E10" si="0">$B$3-AVERAGE(C6:D6)</f>
+        <v>2.8249999999999993</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F10" si="1">($B$1-$B$2)/(D6-C6)</f>
+        <v>7.160759040458288E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -475,6 +489,20 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7">
+        <v>-11.1</v>
+      </c>
+      <c r="D7">
+        <v>18.95</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>-3.9249999999999998</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>6.6555740432612323E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -483,6 +511,20 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8">
+        <v>-30.82</v>
+      </c>
+      <c r="D8">
+        <v>80.27</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-24.724999999999998</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1.8003420649923486E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -491,6 +533,20 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9">
+        <v>-56.91</v>
+      </c>
+      <c r="D9">
+        <v>56.91</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1.7571604287471447E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -499,8 +555,23 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10">
+        <v>-52.04</v>
+      </c>
+      <c r="D10">
+        <v>63.88</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-5.9200000000000017</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>1.725327812284334E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>